--- a/data/RCM/FDSA/svc_historicaldata.xlsx
+++ b/data/RCM/FDSA/svc_historicaldata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70BF7CA-D660-45BA-AF41-595764C2F02D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B7B1EF-14EA-4BAC-A7AA-64DC97E8449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services Historical Series" sheetId="1" r:id="rId1"/>
@@ -634,62 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW338"/>
+  <dimension ref="A1:AW342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="23" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:49">
       <c r="A1" t="s">
@@ -51053,8 +51002,604 @@
         <v>38</v>
       </c>
     </row>
+    <row r="339" spans="1:49">
+      <c r="A339" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B339" s="2">
+        <v>7</v>
+      </c>
+      <c r="C339" s="2">
+        <v>34</v>
+      </c>
+      <c r="D339" s="2">
+        <v>12</v>
+      </c>
+      <c r="E339" s="2">
+        <v>38</v>
+      </c>
+      <c r="F339" s="2">
+        <v>38</v>
+      </c>
+      <c r="G339" s="2">
+        <v>63</v>
+      </c>
+      <c r="H339" s="2">
+        <v>17</v>
+      </c>
+      <c r="I339" s="2">
+        <v>34</v>
+      </c>
+      <c r="J339" s="2">
+        <v>6.43</v>
+      </c>
+      <c r="K339" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="L339" s="2">
+        <v>6</v>
+      </c>
+      <c r="M339" s="2">
+        <v>19</v>
+      </c>
+      <c r="N339" s="2">
+        <v>-20</v>
+      </c>
+      <c r="O339" s="2">
+        <v>-15</v>
+      </c>
+      <c r="P339" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q339" s="2">
+        <v>12</v>
+      </c>
+      <c r="R339" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="S339" s="2">
+        <v>6.51</v>
+      </c>
+      <c r="T339" s="2">
+        <v>15</v>
+      </c>
+      <c r="U339" s="2">
+        <v>19</v>
+      </c>
+      <c r="V339" s="2">
+        <v>41</v>
+      </c>
+      <c r="W339" s="2">
+        <v>10</v>
+      </c>
+      <c r="X339" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y339" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z339" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA339" s="2">
+        <v>14</v>
+      </c>
+      <c r="AB339" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC339" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD339" s="2">
+        <v>60</v>
+      </c>
+      <c r="AE339" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF339" s="2">
+        <v>34</v>
+      </c>
+      <c r="AG339" s="2">
+        <v>6.62</v>
+      </c>
+      <c r="AH339" s="2">
+        <v>5.18</v>
+      </c>
+      <c r="AI339" s="2">
+        <v>10</v>
+      </c>
+      <c r="AJ339" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK339" s="2">
+        <v>-20</v>
+      </c>
+      <c r="AL339" s="2">
+        <v>-13</v>
+      </c>
+      <c r="AM339" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN339" s="2">
+        <v>12</v>
+      </c>
+      <c r="AO339" s="2">
+        <v>7.59</v>
+      </c>
+      <c r="AP339" s="2">
+        <v>6.5200000000000005</v>
+      </c>
+      <c r="AQ339" s="2">
+        <v>15</v>
+      </c>
+      <c r="AR339" s="2">
+        <v>36</v>
+      </c>
+      <c r="AS339" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT339" s="2">
+        <v>41</v>
+      </c>
+      <c r="AU339" s="2">
+        <v>9</v>
+      </c>
+      <c r="AV339" s="2">
+        <v>22</v>
+      </c>
+      <c r="AW339" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340" spans="1:49">
+      <c r="A340" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B340" s="2">
+        <v>4</v>
+      </c>
+      <c r="C340" s="2">
+        <v>36</v>
+      </c>
+      <c r="D340" s="2">
+        <v>6</v>
+      </c>
+      <c r="E340" s="2">
+        <v>34</v>
+      </c>
+      <c r="F340" s="2">
+        <v>42</v>
+      </c>
+      <c r="G340" s="2">
+        <v>75</v>
+      </c>
+      <c r="H340" s="2">
+        <v>19</v>
+      </c>
+      <c r="I340" s="2">
+        <v>33</v>
+      </c>
+      <c r="J340" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="K340" s="2">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="L340" s="2">
+        <v>-6</v>
+      </c>
+      <c r="M340" s="2">
+        <v>32</v>
+      </c>
+      <c r="N340" s="2">
+        <v>-19</v>
+      </c>
+      <c r="O340" s="2">
+        <v>-14</v>
+      </c>
+      <c r="P340" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q340" s="2">
+        <v>18</v>
+      </c>
+      <c r="R340" s="2">
+        <v>6.96</v>
+      </c>
+      <c r="S340" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="T340" s="2">
+        <v>4</v>
+      </c>
+      <c r="U340" s="2">
+        <v>8</v>
+      </c>
+      <c r="V340" s="2">
+        <v>33</v>
+      </c>
+      <c r="W340" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X340" s="2">
+        <v>24</v>
+      </c>
+      <c r="Y340" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z340" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA340" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB340" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC340" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD340" s="2">
+        <v>68</v>
+      </c>
+      <c r="AE340" s="2">
+        <v>26</v>
+      </c>
+      <c r="AF340" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG340" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="AH340" s="2">
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="AI340" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AJ340" s="2">
+        <v>29</v>
+      </c>
+      <c r="AK340" s="2">
+        <v>-21</v>
+      </c>
+      <c r="AL340" s="2">
+        <v>-19</v>
+      </c>
+      <c r="AM340" s="2">
+        <v>9</v>
+      </c>
+      <c r="AN340" s="2">
+        <v>15</v>
+      </c>
+      <c r="AO340" s="2">
+        <v>7.2700000000000005</v>
+      </c>
+      <c r="AP340" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="AQ340" s="2">
+        <v>6</v>
+      </c>
+      <c r="AR340" s="2">
+        <v>26</v>
+      </c>
+      <c r="AS340" s="2">
+        <v>11</v>
+      </c>
+      <c r="AT340" s="2">
+        <v>31</v>
+      </c>
+      <c r="AU340" s="2">
+        <v>3</v>
+      </c>
+      <c r="AV340" s="2">
+        <v>15</v>
+      </c>
+      <c r="AW340" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="341" spans="1:49">
+      <c r="A341" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B341" s="2">
+        <v>4</v>
+      </c>
+      <c r="C341" s="2">
+        <v>51</v>
+      </c>
+      <c r="D341" s="2">
+        <v>12</v>
+      </c>
+      <c r="E341" s="2">
+        <v>42</v>
+      </c>
+      <c r="F341" s="2">
+        <v>48</v>
+      </c>
+      <c r="G341" s="2">
+        <v>63</v>
+      </c>
+      <c r="H341" s="2">
+        <v>17</v>
+      </c>
+      <c r="I341" s="2">
+        <v>47</v>
+      </c>
+      <c r="J341" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="K341" s="2">
+        <v>4.88</v>
+      </c>
+      <c r="L341" s="2">
+        <v>8</v>
+      </c>
+      <c r="M341" s="2">
+        <v>39</v>
+      </c>
+      <c r="N341" s="2">
+        <v>-19</v>
+      </c>
+      <c r="O341" s="2">
+        <v>-12</v>
+      </c>
+      <c r="P341" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q341" s="2">
+        <v>23</v>
+      </c>
+      <c r="R341" s="2">
+        <v>7.72</v>
+      </c>
+      <c r="S341" s="2">
+        <v>5.94</v>
+      </c>
+      <c r="T341" s="2">
+        <v>19</v>
+      </c>
+      <c r="U341" s="2">
+        <v>17</v>
+      </c>
+      <c r="V341" s="2">
+        <v>36</v>
+      </c>
+      <c r="W341" s="2">
+        <v>17</v>
+      </c>
+      <c r="X341" s="2">
+        <v>27</v>
+      </c>
+      <c r="Y341" s="2">
+        <v>11</v>
+      </c>
+      <c r="Z341" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA341" s="2">
+        <v>14</v>
+      </c>
+      <c r="AB341" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC341" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD341" s="2">
+        <v>57</v>
+      </c>
+      <c r="AE341" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF341" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG341" s="2">
+        <v>5.3500000000000005</v>
+      </c>
+      <c r="AH341" s="2">
+        <v>4.87</v>
+      </c>
+      <c r="AI341" s="2">
+        <v>13</v>
+      </c>
+      <c r="AJ341" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK341" s="2">
+        <v>-19</v>
+      </c>
+      <c r="AL341" s="2">
+        <v>-11</v>
+      </c>
+      <c r="AM341" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN341" s="2">
+        <v>18</v>
+      </c>
+      <c r="AO341" s="2">
+        <v>8</v>
+      </c>
+      <c r="AP341" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="AQ341" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR341" s="2">
+        <v>31</v>
+      </c>
+      <c r="AS341" s="2">
+        <v>16</v>
+      </c>
+      <c r="AT341" s="2">
+        <v>35</v>
+      </c>
+      <c r="AU341" s="2">
+        <v>17</v>
+      </c>
+      <c r="AV341" s="2">
+        <v>25</v>
+      </c>
+      <c r="AW341" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="342" spans="1:49">
+      <c r="A342" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B342" s="2">
+        <v>11</v>
+      </c>
+      <c r="C342" s="2">
+        <v>36</v>
+      </c>
+      <c r="D342" s="2">
+        <v>11</v>
+      </c>
+      <c r="E342" s="2">
+        <v>41</v>
+      </c>
+      <c r="F342" s="2">
+        <v>40</v>
+      </c>
+      <c r="G342" s="2">
+        <v>67</v>
+      </c>
+      <c r="H342" s="2">
+        <v>21</v>
+      </c>
+      <c r="I342" s="2">
+        <v>32</v>
+      </c>
+      <c r="J342" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="K342" s="2">
+        <v>5.79</v>
+      </c>
+      <c r="L342" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M342" s="2">
+        <v>14</v>
+      </c>
+      <c r="N342" s="2">
+        <v>-20</v>
+      </c>
+      <c r="O342" s="2">
+        <v>-15</v>
+      </c>
+      <c r="P342" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q342" s="2">
+        <v>12</v>
+      </c>
+      <c r="R342" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="S342" s="2">
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="T342" s="2">
+        <v>18</v>
+      </c>
+      <c r="U342" s="2">
+        <v>20</v>
+      </c>
+      <c r="V342" s="2">
+        <v>40</v>
+      </c>
+      <c r="W342" s="2">
+        <v>14</v>
+      </c>
+      <c r="X342" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y342" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z342" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA342" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB342" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC342" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD342" s="2">
+        <v>64</v>
+      </c>
+      <c r="AE342" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF342" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG342" s="2">
+        <v>5.63</v>
+      </c>
+      <c r="AH342" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="AI342" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AJ342" s="2">
+        <v>14</v>
+      </c>
+      <c r="AK342" s="2">
+        <v>-19</v>
+      </c>
+      <c r="AL342" s="2">
+        <v>-12</v>
+      </c>
+      <c r="AM342" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN342" s="2">
+        <v>9</v>
+      </c>
+      <c r="AO342" s="2">
+        <v>8.35</v>
+      </c>
+      <c r="AP342" s="2">
+        <v>7.41</v>
+      </c>
+      <c r="AQ342" s="2">
+        <v>18</v>
+      </c>
+      <c r="AR342" s="2">
+        <v>29</v>
+      </c>
+      <c r="AS342" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT342" s="2">
+        <v>38</v>
+      </c>
+      <c r="AU342" s="2">
+        <v>14</v>
+      </c>
+      <c r="AV342" s="2">
+        <v>17</v>
+      </c>
+      <c r="AW342" s="2">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>